--- a/data/ApoE.xlsx
+++ b/data/ApoE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/george_miliarakis_wur_nl/Documents/Documents/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/george_miliarakis_wur_nl/Documents/Documents/Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3A9F3A9F-C94B-3A40-BCA1-C137A9575F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B28593A-725E-7945-A690-9E5E6AB4CC48}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{3A9F3A9F-C94B-3A40-BCA1-C137A9575F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D566DC-4053-5E4E-A5F8-8C0C3D471AB1}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A19F60FA-E833-8F41-A10C-912C5D1D23A8}"/>
+    <workbookView xWindow="3620" yWindow="3240" windowWidth="28040" windowHeight="17440" xr2:uid="{A19F60FA-E833-8F41-A10C-912C5D1D23A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,37 +38,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
   <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
     <t>ε2</t>
   </si>
   <si>
-    <t>ε2/ε2</t>
-  </si>
-  <si>
-    <t>AD</t>
+    <t>ε2ε2</t>
   </si>
   <si>
     <t>ε3</t>
   </si>
   <si>
-    <t>ε3/ε3</t>
+    <t>ε3ε3</t>
   </si>
   <si>
     <t>ε4</t>
   </si>
   <si>
-    <t>ε4/ε4</t>
-  </si>
-  <si>
-    <t>ε2/ε3</t>
-  </si>
-  <si>
-    <t>ε3/ε4</t>
-  </si>
-  <si>
-    <t>ε2/ε4</t>
-  </si>
-  <si>
-    <t>SCD</t>
+    <t>ε4ε4</t>
+  </si>
+  <si>
+    <t>ε2ε3</t>
+  </si>
+  <si>
+    <t>ε3ε4</t>
+  </si>
+  <si>
+    <t>ε2ε4</t>
   </si>
 </sst>
 </file>
@@ -111,10 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,336 +430,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2BE1F9-119A-C44B-A428-86BD05DD13D0}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <f>C1/247</f>
-        <v>1.6194331983805668E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E18" si="0">C2/247</f>
-        <v>0.5587044534412956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>2.4291497975708502E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>6.0728744939271252E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2.0242914979757085E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>6.0728744939271252E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.0242914979757085E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.29959514170040485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1.2145748987854251E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.23886639676113361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>8.0971659919028341E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1.2145748987854251E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.23886639676113361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>8.0971659919028341E-3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
